--- a/data/case1/20/Q2_13.xlsx
+++ b/data/case1/20/Q2_13.xlsx
@@ -56,172 +56,172 @@
   <dimension ref="A1:A33"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" customWidth="true"/>
+    <col min="1" max="1" width="15.42578125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.064748798824744824</v>
+        <v>0.14727665526569922</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.0059999999795863346</v>
+        <v>-0.0059999999697488704</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.0039999999847228906</v>
+        <v>-0.0039999999741784364</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.0079999999702220492</v>
+        <v>-0.0079999999519380083</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.0029999999860672588</v>
+        <v>-0.0029999999737508887</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.001999999987113199</v>
+        <v>-0.001999999972168709</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.0099999999601281253</v>
+        <v>-0.0099999999326501054</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.0099999999604905021</v>
+        <v>-0.0099999999325488531</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.001999999988536949</v>
+        <v>-0.0019999999724999995</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.0019999999897848397</v>
+        <v>-0.0019999999734157115</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.0029999999866090477</v>
+        <v>-0.0029999999685532686</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.04260296234680494</v>
+        <v>-0.0025921005812654663</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.003499999983873181</v>
+        <v>0.023470960514993422</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.0079999999682760503</v>
+        <v>-0.0079999999465583116</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.00099999999166389131</v>
+        <v>-0.00099999998098265763</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.0022833165548790113</v>
+        <v>0.010111267930441592</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.001999999987610579</v>
+        <v>-0.0019999999755633269</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.0039999999807394104</v>
+        <v>-0.0039999999655497831</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.0060223547252333809</v>
+        <v>-0.0039999999795266028</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.0039999999850977019</v>
+        <v>-0.0039999999799178454</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.0039999999849182899</v>
+        <v>0.014048881039482097</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.0039999999847939449</v>
+        <v>-0.0039999999799729125</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.0049999999813525875</v>
+        <v>-0.00499999996763556</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.019999999931139101</v>
+        <v>-0.019999999890956133</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.02865502580660273</v>
+        <v>-0.019999999889500408</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.0024999999850887633</v>
+        <v>-0.0024999999687622676</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.0024999999846180287</v>
+        <v>-0.0024999999674095719</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.001999999984141354</v>
+        <v>-0.0019999999642124067</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.054436046855084186</v>
+        <v>-0.0069999999353198561</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.05999999978501469</v>
+        <v>-0.059999999673202353</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.0069999999619465569</v>
+        <v>0.023966696063721926</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.0099999999515976157</v>
+        <v>-0.0099999999189339661</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>-0.0039999999717128532</v>
+        <v>-0.0039999999482684956</v>
       </c>
     </row>
   </sheetData>
